--- a/TMSTT/McRae-BRM-InPress/CombinedList_short_grouped.xlsx
+++ b/TMSTT/McRae-BRM-InPress/CombinedList_short_grouped.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuchaowang/Documents/GitHub/RStudio/TMSTT/McRae-BRM-InPress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9963D62F-B29C-6549-BBDE-A3D202A12760}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3264A4CF-4631-4C41-8645-0EDEF2FFDEC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27500" windowHeight="16940"/>
+    <workbookView xWindow="320" yWindow="500" windowWidth="27500" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CombinedList_short_grouped" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CombinedList_short_grouped!$M$1:$M$345</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="364">
   <si>
     <t>Concept</t>
   </si>
@@ -1106,12 +1117,21 @@
   </si>
   <si>
     <t>Group</t>
+  </si>
+  <si>
+    <t>backup</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>Pending</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1945,16 +1965,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N345"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="D336" sqref="D336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1997,8 +2017,11 @@
       <c r="N1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2041,8 +2064,11 @@
       <c r="N2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -2085,8 +2111,11 @@
       <c r="N3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2129,8 +2158,11 @@
       <c r="N4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>242</v>
       </c>
@@ -2173,1147 +2205,1288 @@
       <c r="N5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B6">
-        <v>4.93</v>
+        <v>2.71</v>
       </c>
       <c r="C6">
-        <v>8.9499999999999993</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
+        <v>19</v>
+      </c>
+      <c r="G6">
         <v>17</v>
       </c>
-      <c r="G6">
-        <v>16</v>
-      </c>
       <c r="H6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>217.57</v>
+        <v>396.27</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="L6">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="M6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C7">
+        <v>7.1</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <v>17</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>395.19</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>611</v>
+      </c>
+      <c r="L7">
+        <v>591</v>
+      </c>
+      <c r="M7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>0.69</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>354.2</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>589</v>
+      </c>
+      <c r="L8">
+        <v>606</v>
+      </c>
+      <c r="M8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>1.39</v>
+      </c>
+      <c r="C9">
+        <v>5.8</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>14</v>
+      </c>
+      <c r="G9">
         <v>12</v>
-      </c>
-      <c r="N6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7">
-        <v>3.18</v>
-      </c>
-      <c r="C7">
-        <v>7.9</v>
-      </c>
-      <c r="D7">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>11</v>
-      </c>
-      <c r="G7">
-        <v>11</v>
-      </c>
-      <c r="H7">
-        <v>7</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>579</v>
-      </c>
-      <c r="L7">
-        <v>554</v>
-      </c>
-      <c r="M7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8">
-        <v>3.64</v>
-      </c>
-      <c r="C8">
-        <v>8.6</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>16</v>
-      </c>
-      <c r="G8">
-        <v>15</v>
-      </c>
-      <c r="H8">
-        <v>9</v>
-      </c>
-      <c r="I8">
-        <v>29.11</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>617</v>
-      </c>
-      <c r="L8">
-        <v>607</v>
-      </c>
-      <c r="M8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9">
-        <v>2.4</v>
-      </c>
-      <c r="C9">
-        <v>7.35</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>11</v>
-      </c>
-      <c r="G9">
-        <v>11</v>
       </c>
       <c r="H9">
         <v>4</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>394.34</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="L9">
-        <v>592</v>
+        <v>610</v>
       </c>
       <c r="M9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10">
+        <v>3.81</v>
+      </c>
+      <c r="C10">
+        <v>5.4</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>22</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>212.46</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>621</v>
+      </c>
+      <c r="L10">
+        <v>632</v>
+      </c>
+      <c r="M10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11">
+        <v>2.56</v>
+      </c>
+      <c r="C11">
+        <v>7.55</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>12</v>
       </c>
-      <c r="N9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10">
-        <v>3.14</v>
-      </c>
-      <c r="C10">
-        <v>7.7</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
+      <c r="G11">
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>26.83</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>604</v>
+      </c>
+      <c r="L11">
+        <v>613</v>
+      </c>
+      <c r="M11" t="s">
         <v>14</v>
       </c>
-      <c r="G10">
-        <v>14</v>
-      </c>
-      <c r="H10">
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>4.93</v>
+      </c>
+      <c r="C12">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>17</v>
+      </c>
+      <c r="G12">
+        <v>16</v>
+      </c>
+      <c r="H12">
         <v>9</v>
       </c>
-      <c r="I10">
-        <v>43.82</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>565</v>
-      </c>
-      <c r="L10">
-        <v>594</v>
-      </c>
-      <c r="M10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11">
-        <v>3.18</v>
-      </c>
-      <c r="C11">
-        <v>8.5500000000000007</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>14</v>
-      </c>
-      <c r="G11">
-        <v>13</v>
-      </c>
-      <c r="H11">
-        <v>6</v>
-      </c>
-      <c r="I11">
-        <v>36.29</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>615</v>
-      </c>
-      <c r="L11">
-        <v>575</v>
-      </c>
-      <c r="M11" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12">
-        <v>3.43</v>
-      </c>
-      <c r="C12">
-        <v>8.4</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>11</v>
-      </c>
-      <c r="G12">
-        <v>11</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
       <c r="I12">
-        <v>24.08</v>
+        <v>217.57</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>605</v>
+        <v>635</v>
       </c>
       <c r="L12">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="M12" t="s">
         <v>12</v>
       </c>
       <c r="N12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="O12" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B13">
-        <v>5.49</v>
+        <v>3.64</v>
       </c>
       <c r="C13">
-        <v>8.9499999999999993</v>
+        <v>8.6</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I13">
-        <v>31.12</v>
+        <v>29.11</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="L13">
-        <v>582</v>
+        <v>607</v>
       </c>
       <c r="M13" t="s">
         <v>12</v>
       </c>
       <c r="N13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="O13" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B14">
-        <v>3.33</v>
+        <v>2.4</v>
       </c>
       <c r="C14">
-        <v>7.45</v>
+        <v>7.35</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G14">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I14">
-        <v>91.21</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>584</v>
+        <v>606</v>
       </c>
       <c r="L14">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="M14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="B15">
-        <v>3.5</v>
+        <v>3.18</v>
       </c>
       <c r="C15">
-        <v>7.6</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G15">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I15">
-        <v>122.54</v>
+        <v>36.29</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>585</v>
+        <v>615</v>
       </c>
       <c r="L15">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="M15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="O15" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="B16">
-        <v>4.03</v>
+        <v>3.58</v>
       </c>
       <c r="C16">
-        <v>8.9499999999999993</v>
+        <v>7.85</v>
       </c>
       <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>12</v>
+      </c>
+      <c r="H16">
         <v>6</v>
       </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>10</v>
-      </c>
-      <c r="G16">
-        <v>9</v>
-      </c>
-      <c r="H16">
+      <c r="I16">
+        <v>11.05</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>576</v>
+      </c>
+      <c r="L16">
+        <v>601</v>
+      </c>
+      <c r="M16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <v>2.94</v>
+      </c>
+      <c r="C17">
+        <v>7.15</v>
+      </c>
+      <c r="D17">
         <v>5</v>
       </c>
-      <c r="I16">
-        <v>108.43</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>615</v>
-      </c>
-      <c r="L16">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>17</v>
+      </c>
+      <c r="G17">
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>596.14</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>608</v>
+      </c>
+      <c r="L17">
+        <v>632</v>
+      </c>
+      <c r="M17" t="s">
+        <v>13</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>3.5</v>
+      </c>
+      <c r="C18">
+        <v>8.15</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>19</v>
+      </c>
+      <c r="G18">
+        <v>18</v>
+      </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
+      <c r="I18">
+        <v>245.01</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
         <v>629</v>
       </c>
-      <c r="M16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17">
-        <v>4.51</v>
-      </c>
-      <c r="C17">
-        <v>8.35</v>
-      </c>
-      <c r="D17">
-        <v>4</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
+      <c r="L18">
+        <v>617</v>
+      </c>
+      <c r="M18" t="s">
+        <v>13</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C19">
+        <v>6.15</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
         <v>15</v>
       </c>
-      <c r="G17">
+      <c r="G19">
+        <v>13</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>112.32</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>593</v>
+      </c>
+      <c r="L19">
+        <v>624</v>
+      </c>
+      <c r="M19" t="s">
         <v>14</v>
       </c>
-      <c r="H17">
-        <v>5</v>
-      </c>
-      <c r="I17">
-        <v>232.86</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>591</v>
-      </c>
-      <c r="L17">
-        <v>619</v>
-      </c>
-      <c r="M17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18">
-        <v>1.61</v>
-      </c>
-      <c r="C18">
-        <v>6.05</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>8</v>
-      </c>
-      <c r="G18">
-        <v>8</v>
-      </c>
-      <c r="H18">
-        <v>6</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>566</v>
-      </c>
-      <c r="L18">
-        <v>599</v>
-      </c>
-      <c r="M18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19">
-        <v>3.26</v>
-      </c>
-      <c r="C19">
-        <v>8.5</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>14</v>
-      </c>
-      <c r="G19">
-        <v>14</v>
-      </c>
-      <c r="H19">
-        <v>3</v>
-      </c>
-      <c r="I19">
-        <v>100.63</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>575</v>
-      </c>
-      <c r="L19">
-        <v>579</v>
-      </c>
-      <c r="M19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="B20">
-        <v>1.79</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C20">
-        <v>8.6999999999999993</v>
+        <v>5.7</v>
       </c>
       <c r="D20">
         <v>4</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G20">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I20">
-        <v>55.94</v>
+        <v>165.52</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K20">
-        <v>589</v>
+        <v>644</v>
       </c>
       <c r="L20">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="M20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="B21">
-        <v>3.09</v>
+        <v>5.22</v>
       </c>
       <c r="C21">
-        <v>8.35</v>
+        <v>6.3</v>
       </c>
       <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>19</v>
+      </c>
+      <c r="G21">
+        <v>18</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>264.16000000000003</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>613</v>
+      </c>
+      <c r="L21">
+        <v>624</v>
+      </c>
+      <c r="M21" t="s">
+        <v>14</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="O21" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>3.18</v>
+      </c>
+      <c r="C22">
+        <v>7.9</v>
+      </c>
+      <c r="D22">
         <v>7</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>10</v>
-      </c>
-      <c r="G21">
-        <v>9</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>125.88</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>593</v>
-      </c>
-      <c r="L21">
-        <v>524</v>
-      </c>
-      <c r="M21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>107</v>
-      </c>
-      <c r="B22">
-        <v>2.83</v>
-      </c>
-      <c r="C22">
-        <v>8.75</v>
-      </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G22">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I22">
-        <v>24.59</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="L22">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="M22" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="O22" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="B23">
-        <v>4.49</v>
+        <v>3.14</v>
       </c>
       <c r="C23">
-        <v>8.6999999999999993</v>
+        <v>7.7</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G23">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H23">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I23">
-        <v>295.14999999999998</v>
+        <v>43.82</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>606</v>
+        <v>565</v>
       </c>
       <c r="L23">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="M23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23">
+        <v>3</v>
+      </c>
+      <c r="O23" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="B24">
-        <v>3.33</v>
+        <v>5.49</v>
       </c>
       <c r="C24">
-        <v>8.6</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G24">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H24">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I24">
-        <v>13.33</v>
+        <v>31.12</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K24">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="L24">
-        <v>614</v>
+        <v>582</v>
       </c>
       <c r="M24" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <v>3</v>
+      </c>
+      <c r="O24" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>199</v>
       </c>
       <c r="B25">
-        <v>2.48</v>
+        <v>4.42</v>
       </c>
       <c r="C25">
-        <v>8.6999999999999993</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G25">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>193.98</v>
+        <v>200.34</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K25">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="L25">
-        <v>525</v>
+        <v>633</v>
       </c>
       <c r="M25" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="B26">
-        <v>1.1000000000000001</v>
+        <v>2.77</v>
       </c>
       <c r="C26">
-        <v>5.6</v>
+        <v>7.4</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G26">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H26">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>90.76</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K26">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="L26">
-        <v>580</v>
+        <v>624</v>
       </c>
       <c r="M26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
+      <c r="O26" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="B27">
-        <v>4.08</v>
+        <v>0.69</v>
       </c>
       <c r="C27">
-        <v>8.1999999999999993</v>
+        <v>7.35</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G27">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H27">
+        <v>6</v>
+      </c>
+      <c r="I27">
+        <v>233.25</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>606</v>
+      </c>
+      <c r="L27">
+        <v>641</v>
+      </c>
+      <c r="M27" t="s">
+        <v>13</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28">
+        <v>2.77</v>
+      </c>
+      <c r="C28">
+        <v>5.75</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>11</v>
+      </c>
+      <c r="G28">
+        <v>9</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>16.21</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>642</v>
+      </c>
+      <c r="L28">
+        <v>590</v>
+      </c>
+      <c r="M28" t="s">
+        <v>13</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+      <c r="O28" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.69</v>
+      </c>
+      <c r="C29">
+        <v>5.45</v>
+      </c>
+      <c r="D29">
         <v>4</v>
       </c>
-      <c r="I27">
-        <v>559.98</v>
-      </c>
-      <c r="J27">
-        <v>2</v>
-      </c>
-      <c r="K27">
-        <v>539</v>
-      </c>
-      <c r="L27">
-        <v>558</v>
-      </c>
-      <c r="M27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>149</v>
-      </c>
-      <c r="B28">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="C28">
-        <v>8.65</v>
-      </c>
-      <c r="D28">
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>16</v>
+      </c>
+      <c r="G29">
+        <v>14</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>263.05</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>619</v>
+      </c>
+      <c r="L29">
+        <v>617</v>
+      </c>
+      <c r="M29" t="s">
+        <v>14</v>
+      </c>
+      <c r="N29">
+        <v>3</v>
+      </c>
+      <c r="O29" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>272</v>
+      </c>
+      <c r="B30">
+        <v>0.69</v>
+      </c>
+      <c r="C30">
+        <v>5.95</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>17</v>
+      </c>
+      <c r="G30">
+        <v>16</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="I30">
+        <v>614.29999999999995</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>637</v>
+      </c>
+      <c r="L30">
+        <v>615</v>
+      </c>
+      <c r="M30" t="s">
+        <v>14</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+      <c r="O30" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>308</v>
+      </c>
+      <c r="B31">
+        <v>0.69</v>
+      </c>
+      <c r="C31">
+        <v>7.25</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>16</v>
+      </c>
+      <c r="G31">
+        <v>15</v>
+      </c>
+      <c r="H31">
         <v>4</v>
       </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>16</v>
-      </c>
-      <c r="G28">
-        <v>15</v>
-      </c>
-      <c r="H28">
-        <v>8</v>
-      </c>
-      <c r="I28">
-        <v>49.07</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>583</v>
-      </c>
-      <c r="L28">
-        <v>574</v>
-      </c>
-      <c r="M28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>152</v>
-      </c>
-      <c r="B29">
-        <v>5.85</v>
-      </c>
-      <c r="C29">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>13</v>
-      </c>
-      <c r="G29">
-        <v>13</v>
-      </c>
-      <c r="H29">
-        <v>6</v>
-      </c>
-      <c r="I29">
-        <v>180.59</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>606</v>
-      </c>
-      <c r="L29">
-        <v>599</v>
-      </c>
-      <c r="M29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>154</v>
-      </c>
-      <c r="B30">
-        <v>3.14</v>
-      </c>
-      <c r="C30">
-        <v>7.7</v>
-      </c>
-      <c r="D30">
-        <v>4</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>9</v>
-      </c>
-      <c r="G30">
-        <v>9</v>
-      </c>
-      <c r="H30">
-        <v>6</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>591</v>
-      </c>
-      <c r="L30">
-        <v>540</v>
-      </c>
-      <c r="M30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>157</v>
-      </c>
-      <c r="B31">
-        <v>3.61</v>
-      </c>
-      <c r="C31">
-        <v>6</v>
-      </c>
-      <c r="D31">
-        <v>4</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>11</v>
-      </c>
-      <c r="G31">
-        <v>10</v>
-      </c>
-      <c r="H31">
-        <v>6</v>
-      </c>
       <c r="I31">
-        <v>0</v>
+        <v>148.69</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
       <c r="K31">
-        <v>516</v>
+        <v>607</v>
       </c>
       <c r="L31">
-        <v>571</v>
+        <v>597</v>
       </c>
       <c r="M31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="B32">
-        <v>3.83</v>
+        <v>4.51</v>
       </c>
       <c r="C32">
-        <v>8.15</v>
+        <v>8.35</v>
       </c>
       <c r="D32">
         <v>4</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G32">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>232.86</v>
       </c>
       <c r="J32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K32">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="L32">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="M32" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32">
+        <v>4</v>
+      </c>
+      <c r="O32" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="B33">
-        <v>1.95</v>
+        <v>4.08</v>
       </c>
       <c r="C33">
-        <v>8.6999999999999993</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -3322,86 +3495,98 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G33">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I33">
-        <v>41.56</v>
+        <v>559.98</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K33">
-        <v>592</v>
+        <v>539</v>
       </c>
       <c r="L33">
-        <v>598</v>
+        <v>558</v>
       </c>
       <c r="M33" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33">
+        <v>4</v>
+      </c>
+      <c r="O33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B34">
-        <v>2.2000000000000002</v>
+        <v>1.95</v>
       </c>
       <c r="C34">
-        <v>6.3</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G34">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H34">
         <v>5</v>
       </c>
       <c r="I34">
-        <v>158.41</v>
+        <v>41.56</v>
       </c>
       <c r="J34">
         <v>1</v>
       </c>
       <c r="K34">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="L34">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="M34" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34">
+        <v>4</v>
+      </c>
+      <c r="O34" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B35">
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C35">
-        <v>5.75</v>
+        <v>6.3</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>16</v>
@@ -3410,156 +3595,180 @@
         <v>15</v>
       </c>
       <c r="H35">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I35">
-        <v>8.76</v>
+        <v>158.41</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
       <c r="K35">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="L35">
-        <v>572</v>
+        <v>618</v>
       </c>
       <c r="M35" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35">
+        <v>4</v>
+      </c>
+      <c r="O35" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="B36">
-        <v>1.1000000000000001</v>
+        <v>1.61</v>
       </c>
       <c r="C36">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="D36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E36">
         <v>2</v>
       </c>
       <c r="F36">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G36">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H36">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I36">
-        <v>101</v>
+        <v>51.36</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>602</v>
+        <v>585</v>
       </c>
       <c r="L36">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="M36" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36">
+        <v>4</v>
+      </c>
+      <c r="O36" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="B37">
-        <v>4.8</v>
+        <v>3.81</v>
       </c>
       <c r="C37">
-        <v>8.75</v>
+        <v>8.9</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G37">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H37">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I37">
-        <v>18.239999999999998</v>
+        <v>337.66</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37">
-        <v>612</v>
+        <v>595</v>
       </c>
       <c r="L37">
-        <v>618</v>
+        <v>527</v>
       </c>
       <c r="M37" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37">
+        <v>4</v>
+      </c>
+      <c r="O37" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>199</v>
+        <v>277</v>
       </c>
       <c r="B38">
-        <v>4.42</v>
+        <v>2.56</v>
       </c>
       <c r="C38">
-        <v>8</v>
+        <v>7.75</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38">
+        <v>18</v>
+      </c>
+      <c r="G38">
         <v>17</v>
       </c>
-      <c r="G38">
-        <v>14</v>
-      </c>
       <c r="H38">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I38">
-        <v>200.34</v>
+        <v>48.04</v>
       </c>
       <c r="J38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K38">
-        <v>612</v>
+        <v>555</v>
       </c>
       <c r="L38">
-        <v>633</v>
+        <v>543</v>
       </c>
       <c r="M38" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38">
+        <v>4</v>
+      </c>
+      <c r="O38" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>210</v>
+        <v>306</v>
       </c>
       <c r="B39">
-        <v>4.16</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>8.15</v>
+        <v>7</v>
       </c>
       <c r="D39">
         <v>7</v>
@@ -3568,394 +3777,406 @@
         <v>3</v>
       </c>
       <c r="F39">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G39">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H39">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>67.75</v>
+        <v>61</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="L39">
-        <v>588</v>
+        <v>517</v>
       </c>
       <c r="M39" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39">
+        <v>4</v>
+      </c>
+      <c r="O39" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>212</v>
+        <v>327</v>
       </c>
       <c r="B40">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>6.85</v>
+        <v>7.8</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40">
+        <v>14</v>
+      </c>
+      <c r="G40">
         <v>13</v>
-      </c>
-      <c r="G40">
-        <v>12</v>
       </c>
       <c r="H40">
         <v>7</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>138.80000000000001</v>
       </c>
       <c r="J40">
         <v>1</v>
       </c>
       <c r="K40">
-        <v>513</v>
+        <v>579</v>
       </c>
       <c r="L40">
-        <v>537</v>
+        <v>580</v>
       </c>
       <c r="M40" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40">
+        <v>4</v>
+      </c>
+      <c r="O40" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>223</v>
+        <v>38</v>
       </c>
       <c r="B41">
-        <v>1.1000000000000001</v>
+        <v>3.43</v>
       </c>
       <c r="C41">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G41">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I41">
-        <v>211.96</v>
+        <v>24.08</v>
       </c>
       <c r="J41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>576</v>
+        <v>605</v>
       </c>
       <c r="L41">
-        <v>574</v>
+        <v>627</v>
       </c>
       <c r="M41" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>225</v>
+        <v>18</v>
       </c>
       <c r="B42">
-        <v>1.61</v>
+        <v>3.33</v>
       </c>
       <c r="C42">
-        <v>8.25</v>
+        <v>7.45</v>
       </c>
       <c r="D42">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G42">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H42">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>51.36</v>
+        <v>91.21</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L42">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="M42" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>233</v>
+        <v>63</v>
       </c>
       <c r="B43">
-        <v>2.08</v>
+        <v>3.5</v>
       </c>
       <c r="C43">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E43">
         <v>2</v>
       </c>
       <c r="F43">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G43">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I43">
-        <v>331.92</v>
+        <v>122.54</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="L43">
-        <v>599</v>
+        <v>571</v>
       </c>
       <c r="M43" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>236</v>
+        <v>69</v>
       </c>
       <c r="B44">
-        <v>2.94</v>
+        <v>4.03</v>
       </c>
       <c r="C44">
-        <v>6.7</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G44">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H44">
         <v>5</v>
       </c>
       <c r="I44">
-        <v>46.61</v>
+        <v>108.43</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44">
-        <v>586</v>
+        <v>615</v>
       </c>
       <c r="L44">
-        <v>532</v>
+        <v>629</v>
       </c>
       <c r="M44" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>245</v>
+        <v>81</v>
       </c>
       <c r="B45">
-        <v>3.66</v>
+        <v>1.61</v>
       </c>
       <c r="C45">
-        <v>5.95</v>
+        <v>6.05</v>
       </c>
       <c r="D45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F45">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G45">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I45">
-        <v>162.31</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>615</v>
+        <v>566</v>
       </c>
       <c r="L45">
-        <v>630</v>
+        <v>599</v>
       </c>
       <c r="M45" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>249</v>
+        <v>82</v>
       </c>
       <c r="B46">
-        <v>1.79</v>
+        <v>3.26</v>
       </c>
       <c r="C46">
-        <v>8.8000000000000007</v>
+        <v>8.5</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G46">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I46">
-        <v>214.63</v>
+        <v>100.63</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46">
-        <v>613</v>
+        <v>575</v>
       </c>
       <c r="L46">
-        <v>624</v>
+        <v>579</v>
       </c>
       <c r="M46" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>250</v>
+        <v>89</v>
       </c>
       <c r="B47">
-        <v>3.09</v>
+        <v>1.79</v>
       </c>
       <c r="C47">
-        <v>6.85</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G47">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I47">
-        <v>54.94</v>
+        <v>55.94</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="L47">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="M47" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>254</v>
+        <v>98</v>
       </c>
       <c r="B48">
-        <v>3.81</v>
+        <v>3.09</v>
       </c>
       <c r="C48">
-        <v>8.9</v>
+        <v>8.35</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F48">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G48">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>337.66</v>
+        <v>125.88</v>
       </c>
       <c r="J48">
         <v>1</v>
       </c>
       <c r="K48">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="L48">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="M48" t="s">
         <v>12</v>
@@ -3963,40 +4184,40 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>264</v>
+        <v>107</v>
       </c>
       <c r="B49">
-        <v>2.4</v>
+        <v>2.83</v>
       </c>
       <c r="C49">
-        <v>5.8</v>
+        <v>8.75</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G49">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H49">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I49">
-        <v>74.819999999999993</v>
+        <v>24.59</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="L49">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="M49" t="s">
         <v>12</v>
@@ -4004,40 +4225,40 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>277</v>
+        <v>119</v>
       </c>
       <c r="B50">
-        <v>2.56</v>
+        <v>4.49</v>
       </c>
       <c r="C50">
-        <v>7.75</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G50">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H50">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I50">
-        <v>48.04</v>
+        <v>295.14999999999998</v>
       </c>
       <c r="J50">
         <v>1</v>
       </c>
       <c r="K50">
-        <v>555</v>
+        <v>606</v>
       </c>
       <c r="L50">
-        <v>543</v>
+        <v>610</v>
       </c>
       <c r="M50" t="s">
         <v>12</v>
@@ -4045,40 +4266,40 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>281</v>
+        <v>131</v>
       </c>
       <c r="B51">
-        <v>0.69</v>
+        <v>3.33</v>
       </c>
       <c r="C51">
-        <v>6.05</v>
+        <v>8.6</v>
       </c>
       <c r="D51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G51">
         <v>12</v>
       </c>
       <c r="H51">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I51">
-        <v>165.71</v>
+        <v>13.33</v>
       </c>
       <c r="J51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K51">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="L51">
-        <v>544</v>
+        <v>614</v>
       </c>
       <c r="M51" t="s">
         <v>12</v>
@@ -4086,40 +4307,40 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>283</v>
+        <v>132</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="C52">
-        <v>7.55</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D52">
+        <v>6</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>13</v>
+      </c>
+      <c r="G52">
+        <v>12</v>
+      </c>
+      <c r="H52">
         <v>5</v>
       </c>
-      <c r="E52">
-        <v>2</v>
-      </c>
-      <c r="F52">
-        <v>10</v>
-      </c>
-      <c r="G52">
-        <v>9</v>
-      </c>
-      <c r="H52">
-        <v>2</v>
-      </c>
       <c r="I52">
-        <v>76.22</v>
+        <v>193.98</v>
       </c>
       <c r="J52">
         <v>1</v>
       </c>
       <c r="K52">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="L52">
-        <v>609</v>
+        <v>525</v>
       </c>
       <c r="M52" t="s">
         <v>12</v>
@@ -4127,40 +4348,40 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>285</v>
+        <v>136</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C53">
-        <v>6.35</v>
+        <v>5.6</v>
       </c>
       <c r="D53">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G53">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H53">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I53">
-        <v>79.849999999999994</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>574</v>
+        <v>614</v>
       </c>
       <c r="L53">
-        <v>617</v>
+        <v>580</v>
       </c>
       <c r="M53" t="s">
         <v>12</v>
@@ -4168,40 +4389,40 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>289</v>
+        <v>149</v>
       </c>
       <c r="B54">
-        <v>2.71</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="C54">
-        <v>7.05</v>
+        <v>8.65</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="F54">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G54">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H54">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I54">
-        <v>80.97</v>
+        <v>49.07</v>
       </c>
       <c r="J54">
         <v>1</v>
       </c>
       <c r="K54">
-        <v>611</v>
+        <v>583</v>
       </c>
       <c r="L54">
-        <v>602</v>
+        <v>574</v>
       </c>
       <c r="M54" t="s">
         <v>12</v>
@@ -4209,40 +4430,40 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>295</v>
+        <v>152</v>
       </c>
       <c r="B55">
-        <v>2.08</v>
+        <v>5.85</v>
       </c>
       <c r="C55">
-        <v>6.45</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G55">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H55">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I55">
-        <v>329.13</v>
+        <v>180.59</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55">
-        <v>581</v>
+        <v>606</v>
       </c>
       <c r="L55">
-        <v>538</v>
+        <v>599</v>
       </c>
       <c r="M55" t="s">
         <v>12</v>
@@ -4250,13 +4471,13 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>297</v>
+        <v>154</v>
       </c>
       <c r="B56">
         <v>3.14</v>
       </c>
       <c r="C56">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="D56">
         <v>4</v>
@@ -4265,25 +4486,25 @@
         <v>1</v>
       </c>
       <c r="F56">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G56">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H56">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I56">
-        <v>375.26</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="L56">
-        <v>599</v>
+        <v>540</v>
       </c>
       <c r="M56" t="s">
         <v>12</v>
@@ -4291,40 +4512,40 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>303</v>
+        <v>157</v>
       </c>
       <c r="B57">
-        <v>2.2000000000000002</v>
+        <v>3.61</v>
       </c>
       <c r="C57">
-        <v>8.4</v>
+        <v>6</v>
       </c>
       <c r="D57">
         <v>4</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G57">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H57">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I57">
-        <v>527.36</v>
+        <v>0</v>
       </c>
       <c r="J57">
         <v>1</v>
       </c>
       <c r="K57">
-        <v>629</v>
+        <v>516</v>
       </c>
       <c r="L57">
-        <v>597</v>
+        <v>571</v>
       </c>
       <c r="M57" t="s">
         <v>12</v>
@@ -4332,40 +4553,40 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>306</v>
+        <v>165</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>3.83</v>
       </c>
       <c r="C58">
-        <v>7</v>
+        <v>8.15</v>
       </c>
       <c r="D58">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G58">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I58">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K58">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="L58">
-        <v>517</v>
+        <v>611</v>
       </c>
       <c r="M58" t="s">
         <v>12</v>
@@ -4373,40 +4594,40 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>313</v>
+        <v>188</v>
       </c>
       <c r="B59">
-        <v>2.83</v>
+        <v>2.4</v>
       </c>
       <c r="C59">
-        <v>8.35</v>
+        <v>5.75</v>
       </c>
       <c r="D59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G59">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I59">
-        <v>358.79</v>
+        <v>8.76</v>
       </c>
       <c r="J59">
         <v>1</v>
       </c>
       <c r="K59">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="L59">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="M59" t="s">
         <v>12</v>
@@ -4414,40 +4635,40 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>319</v>
+        <v>196</v>
       </c>
       <c r="B60">
-        <v>2.94</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C60">
-        <v>7.85</v>
+        <v>7.8</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G60">
+        <v>16</v>
+      </c>
+      <c r="H60">
         <v>8</v>
       </c>
-      <c r="H60">
-        <v>3</v>
-      </c>
       <c r="I60">
-        <v>17.96</v>
+        <v>101</v>
       </c>
       <c r="J60">
         <v>1</v>
       </c>
       <c r="K60">
-        <v>538</v>
+        <v>602</v>
       </c>
       <c r="L60">
-        <v>541</v>
+        <v>594</v>
       </c>
       <c r="M60" t="s">
         <v>12</v>
@@ -4455,19 +4676,19 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>320</v>
+        <v>197</v>
       </c>
       <c r="B61">
-        <v>4.41</v>
+        <v>4.8</v>
       </c>
       <c r="C61">
-        <v>8.85</v>
+        <v>8.75</v>
       </c>
       <c r="D61">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F61">
         <v>12</v>
@@ -4476,19 +4697,19 @@
         <v>12</v>
       </c>
       <c r="H61">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I61">
-        <v>25.18</v>
+        <v>18.239999999999998</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
       <c r="K61">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="L61">
-        <v>655</v>
+        <v>618</v>
       </c>
       <c r="M61" t="s">
         <v>12</v>
@@ -4496,40 +4717,40 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>322</v>
+        <v>210</v>
       </c>
       <c r="B62">
-        <v>2.77</v>
+        <v>4.16</v>
       </c>
       <c r="C62">
+        <v>8.15</v>
+      </c>
+      <c r="D62">
         <v>7</v>
       </c>
-      <c r="D62">
-        <v>8</v>
-      </c>
       <c r="E62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F62">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G62">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H62">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>67.75</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62">
-        <v>612</v>
+        <v>588</v>
       </c>
       <c r="L62">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="M62" t="s">
         <v>12</v>
@@ -4537,40 +4758,40 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>327</v>
+        <v>212</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="C63">
-        <v>7.8</v>
+        <v>6.85</v>
       </c>
       <c r="D63">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G63">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H63">
         <v>7</v>
       </c>
       <c r="I63">
-        <v>138.80000000000001</v>
+        <v>0</v>
       </c>
       <c r="J63">
         <v>1</v>
       </c>
       <c r="K63">
-        <v>579</v>
+        <v>513</v>
       </c>
       <c r="L63">
-        <v>580</v>
+        <v>537</v>
       </c>
       <c r="M63" t="s">
         <v>12</v>
@@ -4578,318 +4799,309 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>328</v>
+        <v>223</v>
       </c>
       <c r="B64">
-        <v>2.83</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C64">
-        <v>8.5500000000000007</v>
+        <v>8.6</v>
       </c>
       <c r="D64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G64">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I64">
-        <v>34.81</v>
+        <v>211.96</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K64">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="L64">
-        <v>603</v>
+        <v>574</v>
       </c>
       <c r="M64" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>336</v>
+        <v>233</v>
       </c>
       <c r="B65">
-        <v>3.04</v>
+        <v>2.08</v>
       </c>
       <c r="C65">
-        <v>6.75</v>
+        <v>7.5</v>
       </c>
       <c r="D65">
         <v>3</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G65">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I65">
-        <v>65.040000000000006</v>
+        <v>331.92</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="L65">
-        <v>550</v>
+        <v>599</v>
       </c>
       <c r="M65" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>343</v>
+        <v>236</v>
       </c>
       <c r="B66">
-        <v>2.4</v>
+        <v>2.94</v>
       </c>
       <c r="C66">
-        <v>5.3</v>
+        <v>6.7</v>
       </c>
       <c r="D66">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G66">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H66">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I66">
-        <v>55.05</v>
+        <v>46.61</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="L66">
-        <v>615</v>
+        <v>532</v>
       </c>
       <c r="M66" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>350</v>
+        <v>245</v>
       </c>
       <c r="B67">
-        <v>5.44</v>
+        <v>3.66</v>
       </c>
       <c r="C67">
-        <v>8.9</v>
+        <v>5.95</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F67">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G67">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H67">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I67">
-        <v>17.03</v>
+        <v>162.31</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K67">
-        <v>589</v>
+        <v>615</v>
       </c>
       <c r="L67">
-        <v>576</v>
+        <v>630</v>
       </c>
       <c r="M67" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>20</v>
+        <v>249</v>
       </c>
       <c r="B68">
-        <v>2.71</v>
+        <v>1.79</v>
       </c>
       <c r="C68">
-        <v>8.3000000000000007</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E68">
         <v>2</v>
       </c>
       <c r="F68">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G68">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H68">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I68">
-        <v>396.27</v>
+        <v>214.63</v>
       </c>
       <c r="J68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K68">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="L68">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="M68" t="s">
-        <v>13</v>
-      </c>
-      <c r="N68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>21</v>
+        <v>250</v>
       </c>
       <c r="B69">
-        <v>2.2999999999999998</v>
+        <v>3.09</v>
       </c>
       <c r="C69">
-        <v>7.1</v>
+        <v>6.85</v>
       </c>
       <c r="D69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G69">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I69">
-        <v>395.19</v>
+        <v>54.94</v>
       </c>
       <c r="J69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="L69">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="M69" t="s">
-        <v>13</v>
-      </c>
-      <c r="N69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>22</v>
+        <v>264</v>
       </c>
       <c r="B70">
+        <v>2.4</v>
+      </c>
+      <c r="C70">
+        <v>5.8</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>15</v>
+      </c>
+      <c r="G70">
+        <v>14</v>
+      </c>
+      <c r="H70">
+        <v>6</v>
+      </c>
+      <c r="I70">
+        <v>74.819999999999993</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>597</v>
+      </c>
+      <c r="L70">
+        <v>550</v>
+      </c>
+      <c r="M70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>281</v>
+      </c>
+      <c r="B71">
         <v>0.69</v>
       </c>
-      <c r="C70">
+      <c r="C71">
+        <v>6.05</v>
+      </c>
+      <c r="D71">
         <v>5</v>
       </c>
-      <c r="D70">
-        <v>6</v>
-      </c>
-      <c r="E70">
-        <v>2</v>
-      </c>
-      <c r="F70">
-        <v>11</v>
-      </c>
-      <c r="G70">
-        <v>10</v>
-      </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-      <c r="I70">
-        <v>354.2</v>
-      </c>
-      <c r="J70">
-        <v>1</v>
-      </c>
-      <c r="K70">
-        <v>589</v>
-      </c>
-      <c r="L70">
-        <v>606</v>
-      </c>
-      <c r="M70" t="s">
-        <v>13</v>
-      </c>
-      <c r="N70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>30</v>
-      </c>
-      <c r="B71">
-        <v>3.58</v>
-      </c>
-      <c r="C71">
-        <v>7.85</v>
-      </c>
-      <c r="D71">
-        <v>3</v>
-      </c>
       <c r="E71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G71">
         <v>12</v>
@@ -4898,33 +5110,30 @@
         <v>6</v>
       </c>
       <c r="I71">
-        <v>11.05</v>
+        <v>165.71</v>
       </c>
       <c r="J71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K71">
-        <v>576</v>
+        <v>606</v>
       </c>
       <c r="L71">
-        <v>601</v>
+        <v>544</v>
       </c>
       <c r="M71" t="s">
-        <v>13</v>
-      </c>
-      <c r="N71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>31</v>
+        <v>283</v>
       </c>
       <c r="B72">
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>7.15</v>
+        <v>7.55</v>
       </c>
       <c r="D72">
         <v>5</v>
@@ -4933,86 +5142,80 @@
         <v>2</v>
       </c>
       <c r="F72">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G72">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>596.14</v>
+        <v>76.22</v>
       </c>
       <c r="J72">
         <v>1</v>
       </c>
       <c r="K72">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="L72">
-        <v>632</v>
+        <v>609</v>
       </c>
       <c r="M72" t="s">
-        <v>13</v>
-      </c>
-      <c r="N72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>32</v>
+        <v>285</v>
       </c>
       <c r="B73">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>8.15</v>
+        <v>6.35</v>
       </c>
       <c r="D73">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E73">
         <v>3</v>
       </c>
       <c r="F73">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G73">
         <v>18</v>
       </c>
       <c r="H73">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I73">
-        <v>245.01</v>
+        <v>79.849999999999994</v>
       </c>
       <c r="J73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K73">
-        <v>629</v>
+        <v>574</v>
       </c>
       <c r="L73">
         <v>617</v>
       </c>
       <c r="M73" t="s">
-        <v>13</v>
-      </c>
-      <c r="N73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>40</v>
+        <v>289</v>
       </c>
       <c r="B74">
-        <v>2.77</v>
+        <v>2.71</v>
       </c>
       <c r="C74">
-        <v>7.4</v>
+        <v>7.05</v>
       </c>
       <c r="D74">
         <v>3</v>
@@ -5021,42 +5224,39 @@
         <v>1</v>
       </c>
       <c r="F74">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G74">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H74">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I74">
-        <v>90.76</v>
+        <v>80.97</v>
       </c>
       <c r="J74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K74">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="L74">
-        <v>624</v>
+        <v>602</v>
       </c>
       <c r="M74" t="s">
-        <v>13</v>
-      </c>
-      <c r="N74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>41</v>
+        <v>295</v>
       </c>
       <c r="B75">
-        <v>0.69</v>
+        <v>2.08</v>
       </c>
       <c r="C75">
-        <v>7.35</v>
+        <v>6.45</v>
       </c>
       <c r="D75">
         <v>4</v>
@@ -5065,291 +5265,285 @@
         <v>2</v>
       </c>
       <c r="F75">
+        <v>15</v>
+      </c>
+      <c r="G75">
+        <v>14</v>
+      </c>
+      <c r="H75">
+        <v>7</v>
+      </c>
+      <c r="I75">
+        <v>329.13</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>581</v>
+      </c>
+      <c r="L75">
+        <v>538</v>
+      </c>
+      <c r="M75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>297</v>
+      </c>
+      <c r="B76">
+        <v>3.14</v>
+      </c>
+      <c r="C76">
+        <v>8.5</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>17</v>
+      </c>
+      <c r="G76">
+        <v>16</v>
+      </c>
+      <c r="H76">
+        <v>7</v>
+      </c>
+      <c r="I76">
+        <v>375.26</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>590</v>
+      </c>
+      <c r="L76">
+        <v>599</v>
+      </c>
+      <c r="M76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>303</v>
+      </c>
+      <c r="B77">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C77">
+        <v>8.4</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77">
         <v>18</v>
       </c>
-      <c r="G75">
-        <v>16</v>
-      </c>
-      <c r="H75">
-        <v>6</v>
-      </c>
-      <c r="I75">
-        <v>233.25</v>
-      </c>
-      <c r="J75">
-        <v>2</v>
-      </c>
-      <c r="K75">
-        <v>606</v>
-      </c>
-      <c r="L75">
-        <v>641</v>
-      </c>
-      <c r="M75" t="s">
+      <c r="G77">
+        <v>17</v>
+      </c>
+      <c r="H77">
+        <v>8</v>
+      </c>
+      <c r="I77">
+        <v>527.36</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>629</v>
+      </c>
+      <c r="L77">
+        <v>597</v>
+      </c>
+      <c r="M77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>313</v>
+      </c>
+      <c r="B78">
+        <v>2.83</v>
+      </c>
+      <c r="C78">
+        <v>8.35</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
         <v>13</v>
       </c>
-      <c r="N75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>42</v>
-      </c>
-      <c r="B76">
-        <v>2.77</v>
-      </c>
-      <c r="C76">
-        <v>5.75</v>
-      </c>
-      <c r="D76">
-        <v>6</v>
-      </c>
-      <c r="E76">
-        <v>2</v>
-      </c>
-      <c r="F76">
-        <v>11</v>
-      </c>
-      <c r="G76">
+      <c r="G78">
+        <v>12</v>
+      </c>
+      <c r="H78">
+        <v>4</v>
+      </c>
+      <c r="I78">
+        <v>358.79</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>591</v>
+      </c>
+      <c r="L78">
+        <v>592</v>
+      </c>
+      <c r="M78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>319</v>
+      </c>
+      <c r="B79">
+        <v>2.94</v>
+      </c>
+      <c r="C79">
+        <v>7.85</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
         <v>9</v>
       </c>
-      <c r="H76">
-        <v>1</v>
-      </c>
-      <c r="I76">
-        <v>16.21</v>
-      </c>
-      <c r="J76">
-        <v>2</v>
-      </c>
-      <c r="K76">
-        <v>642</v>
-      </c>
-      <c r="L76">
-        <v>590</v>
-      </c>
-      <c r="M76" t="s">
-        <v>13</v>
-      </c>
-      <c r="N76">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>53</v>
-      </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-      <c r="C77">
-        <v>5.85</v>
-      </c>
-      <c r="D77">
-        <v>9</v>
-      </c>
-      <c r="E77">
-        <v>4</v>
-      </c>
-      <c r="F77">
-        <v>9</v>
-      </c>
-      <c r="G77">
+      <c r="G79">
         <v>8</v>
       </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>171.4</v>
-      </c>
-      <c r="J77">
-        <v>1</v>
-      </c>
-      <c r="K77">
-        <v>608</v>
-      </c>
-      <c r="L77">
-        <v>590</v>
-      </c>
-      <c r="M77" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>59</v>
-      </c>
-      <c r="B78">
-        <v>1.61</v>
-      </c>
-      <c r="C78">
-        <v>8.1</v>
-      </c>
-      <c r="D78">
-        <v>6</v>
-      </c>
-      <c r="E78">
-        <v>3</v>
-      </c>
-      <c r="F78">
-        <v>15</v>
-      </c>
-      <c r="G78">
-        <v>14</v>
-      </c>
-      <c r="H78">
-        <v>2</v>
-      </c>
-      <c r="I78">
-        <v>180.99</v>
-      </c>
-      <c r="J78">
-        <v>1</v>
-      </c>
-      <c r="K78">
-        <v>633</v>
-      </c>
-      <c r="L78">
-        <v>644</v>
-      </c>
-      <c r="M78" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>75</v>
-      </c>
-      <c r="B79">
-        <v>1.95</v>
-      </c>
-      <c r="C79">
-        <v>7.4</v>
-      </c>
-      <c r="D79">
-        <v>6</v>
-      </c>
-      <c r="E79">
-        <v>2</v>
-      </c>
-      <c r="F79">
-        <v>11</v>
-      </c>
-      <c r="G79">
-        <v>10</v>
-      </c>
       <c r="H79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I79">
-        <v>42.23</v>
+        <v>17.96</v>
       </c>
       <c r="J79">
         <v>1</v>
       </c>
       <c r="K79">
-        <v>574</v>
+        <v>538</v>
       </c>
       <c r="L79">
-        <v>571</v>
+        <v>541</v>
       </c>
       <c r="M79" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>86</v>
+        <v>320</v>
       </c>
       <c r="B80">
-        <v>3.71</v>
+        <v>4.41</v>
       </c>
       <c r="C80">
-        <v>8.5500000000000007</v>
+        <v>8.85</v>
       </c>
       <c r="D80">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F80">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G80">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H80">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>25.18</v>
       </c>
       <c r="J80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K80">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="L80">
-        <v>619</v>
+        <v>655</v>
       </c>
       <c r="M80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>96</v>
+        <v>322</v>
       </c>
       <c r="B81">
-        <v>1.39</v>
+        <v>2.77</v>
       </c>
       <c r="C81">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="D81">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E81">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F81">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G81">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I81">
-        <v>327.84</v>
+        <v>0</v>
       </c>
       <c r="J81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="L81">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="M81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>108</v>
+        <v>328</v>
       </c>
       <c r="B82">
-        <v>1.61</v>
+        <v>2.83</v>
       </c>
       <c r="C82">
-        <v>7.6</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="D82">
         <v>5</v>
@@ -5358,189 +5552,189 @@
         <v>2</v>
       </c>
       <c r="F82">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G82">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H82">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I82">
-        <v>275.2</v>
+        <v>34.81</v>
       </c>
       <c r="J82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K82">
-        <v>622</v>
+        <v>586</v>
       </c>
       <c r="L82">
-        <v>577</v>
+        <v>603</v>
       </c>
       <c r="M82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>114</v>
+        <v>336</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="C83">
-        <v>6.8</v>
+        <v>6.75</v>
       </c>
       <c r="D83">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G83">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I83">
-        <v>326.25</v>
+        <v>65.040000000000006</v>
       </c>
       <c r="J83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83">
-        <v>642</v>
+        <v>590</v>
       </c>
       <c r="L83">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="M83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>121</v>
+        <v>343</v>
       </c>
       <c r="B84">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="C84">
-        <v>8.25</v>
+        <v>5.3</v>
       </c>
       <c r="D84">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F84">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G84">
         <v>15</v>
       </c>
       <c r="H84">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I84">
-        <v>59</v>
+        <v>55.05</v>
       </c>
       <c r="J84">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K84">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="L84">
-        <v>592</v>
+        <v>615</v>
       </c>
       <c r="M84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>122</v>
+        <v>350</v>
       </c>
       <c r="B85">
-        <v>2.08</v>
+        <v>5.44</v>
       </c>
       <c r="C85">
-        <v>6.9</v>
+        <v>8.9</v>
       </c>
       <c r="D85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F85">
+        <v>14</v>
+      </c>
+      <c r="G85">
+        <v>13</v>
+      </c>
+      <c r="H85">
+        <v>7</v>
+      </c>
+      <c r="I85">
+        <v>17.03</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>589</v>
+      </c>
+      <c r="L85">
+        <v>576</v>
+      </c>
+      <c r="M85" t="s">
         <v>12</v>
-      </c>
-      <c r="G85">
-        <v>10</v>
-      </c>
-      <c r="H85">
-        <v>1</v>
-      </c>
-      <c r="I85">
-        <v>234.85</v>
-      </c>
-      <c r="J85">
-        <v>2</v>
-      </c>
-      <c r="K85">
-        <v>611</v>
-      </c>
-      <c r="L85">
-        <v>582</v>
-      </c>
-      <c r="M85" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="C86">
-        <v>7.1</v>
+        <v>5.85</v>
       </c>
       <c r="D86">
         <v>9</v>
       </c>
       <c r="E86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F86">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G86">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H86">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>261.92</v>
+        <v>171.4</v>
       </c>
       <c r="J86">
         <v>1</v>
       </c>
       <c r="K86">
-        <v>653</v>
+        <v>608</v>
       </c>
       <c r="L86">
-        <v>623</v>
+        <v>590</v>
       </c>
       <c r="M86" t="s">
         <v>13</v>
@@ -5548,40 +5742,40 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>171</v>
+        <v>59</v>
       </c>
       <c r="B87">
-        <v>1.39</v>
+        <v>1.61</v>
       </c>
       <c r="C87">
-        <v>7.85</v>
+        <v>8.1</v>
       </c>
       <c r="D87">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F87">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G87">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H87">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>31.75</v>
+        <v>180.99</v>
       </c>
       <c r="J87">
         <v>1</v>
       </c>
       <c r="K87">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="L87">
-        <v>565</v>
+        <v>644</v>
       </c>
       <c r="M87" t="s">
         <v>13</v>
@@ -5589,40 +5783,40 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>203</v>
+        <v>75</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="C88">
-        <v>7.95</v>
+        <v>7.4</v>
       </c>
       <c r="D88">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E88">
         <v>2</v>
       </c>
       <c r="F88">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G88">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H88">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I88">
-        <v>290.39</v>
+        <v>42.23</v>
       </c>
       <c r="J88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K88">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="L88">
-        <v>608</v>
+        <v>571</v>
       </c>
       <c r="M88" t="s">
         <v>13</v>
@@ -5630,40 +5824,40 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>205</v>
+        <v>86</v>
       </c>
       <c r="B89">
-        <v>2.56</v>
+        <v>3.71</v>
       </c>
       <c r="C89">
-        <v>5.35</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="D89">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E89">
         <v>1</v>
       </c>
       <c r="F89">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G89">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H89">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I89">
-        <v>222.23</v>
+        <v>0</v>
       </c>
       <c r="J89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K89">
-        <v>590</v>
+        <v>622</v>
       </c>
       <c r="L89">
-        <v>563</v>
+        <v>619</v>
       </c>
       <c r="M89" t="s">
         <v>13</v>
@@ -5671,40 +5865,40 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>230</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>1.79</v>
+        <v>1.39</v>
       </c>
       <c r="C90">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="D90">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E90">
         <v>2</v>
       </c>
       <c r="F90">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G90">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H90">
         <v>3</v>
       </c>
       <c r="I90">
-        <v>93.98</v>
+        <v>327.84</v>
       </c>
       <c r="J90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K90">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="L90">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="M90" t="s">
         <v>13</v>
@@ -5712,13 +5906,13 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>231</v>
+        <v>108</v>
       </c>
       <c r="B91">
-        <v>3.37</v>
+        <v>1.61</v>
       </c>
       <c r="C91">
-        <v>8.1999999999999993</v>
+        <v>7.6</v>
       </c>
       <c r="D91">
         <v>5</v>
@@ -5727,25 +5921,25 @@
         <v>2</v>
       </c>
       <c r="F91">
+        <v>18</v>
+      </c>
+      <c r="G91">
         <v>16</v>
       </c>
-      <c r="G91">
-        <v>14</v>
-      </c>
       <c r="H91">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I91">
-        <v>1296.22</v>
+        <v>275.2</v>
       </c>
       <c r="J91">
         <v>2</v>
       </c>
       <c r="K91">
-        <v>601</v>
+        <v>622</v>
       </c>
       <c r="L91">
-        <v>626</v>
+        <v>577</v>
       </c>
       <c r="M91" t="s">
         <v>13</v>
@@ -5753,40 +5947,40 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>238</v>
+        <v>114</v>
       </c>
       <c r="B92">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>7.05</v>
+        <v>6.8</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F92">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G92">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92">
-        <v>568.34</v>
+        <v>326.25</v>
       </c>
       <c r="J92">
         <v>1</v>
       </c>
       <c r="K92">
-        <v>617</v>
+        <v>642</v>
       </c>
       <c r="L92">
-        <v>613</v>
+        <v>567</v>
       </c>
       <c r="M92" t="s">
         <v>13</v>
@@ -5794,13 +5988,13 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>239</v>
+        <v>121</v>
       </c>
       <c r="B93">
-        <v>2.08</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C93">
-        <v>7.2</v>
+        <v>8.25</v>
       </c>
       <c r="D93">
         <v>3</v>
@@ -5809,25 +6003,25 @@
         <v>1</v>
       </c>
       <c r="F93">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G93">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I93">
-        <v>220.72</v>
+        <v>59</v>
       </c>
       <c r="J93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K93">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="L93">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="M93" t="s">
         <v>13</v>
@@ -5835,16 +6029,16 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>243</v>
+        <v>122</v>
       </c>
       <c r="B94">
-        <v>2.56</v>
+        <v>2.08</v>
       </c>
       <c r="C94">
-        <v>7.8</v>
+        <v>6.9</v>
       </c>
       <c r="D94">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E94">
         <v>2</v>
@@ -5856,19 +6050,19 @@
         <v>10</v>
       </c>
       <c r="H94">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>234.85</v>
       </c>
       <c r="J94">
         <v>2</v>
       </c>
       <c r="K94">
-        <v>591</v>
+        <v>611</v>
       </c>
       <c r="L94">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="M94" t="s">
         <v>13</v>
@@ -5876,40 +6070,40 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>246</v>
+        <v>144</v>
       </c>
       <c r="B95">
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>7.35</v>
+        <v>7.1</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F95">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G95">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H95">
         <v>4</v>
       </c>
       <c r="I95">
-        <v>77.59</v>
+        <v>261.92</v>
       </c>
       <c r="J95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K95">
-        <v>613</v>
+        <v>653</v>
       </c>
       <c r="L95">
-        <v>604</v>
+        <v>623</v>
       </c>
       <c r="M95" t="s">
         <v>13</v>
@@ -5917,473 +6111,464 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>252</v>
+        <v>171</v>
       </c>
       <c r="B96">
-        <v>2.2000000000000002</v>
+        <v>1.39</v>
       </c>
       <c r="C96">
-        <v>6.4</v>
+        <v>7.85</v>
       </c>
       <c r="D96">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F96">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G96">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H96">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I96">
-        <v>572.09</v>
+        <v>31.75</v>
       </c>
       <c r="J96">
         <v>1</v>
       </c>
       <c r="K96">
-        <v>653</v>
+        <v>636</v>
       </c>
       <c r="L96">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="M96" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>256</v>
+        <v>203</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97">
-        <v>6.2</v>
+        <v>7.95</v>
       </c>
       <c r="D97">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F97">
+        <v>18</v>
+      </c>
+      <c r="G97">
         <v>15</v>
       </c>
-      <c r="G97">
-        <v>14</v>
-      </c>
       <c r="H97">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I97">
-        <v>436.26</v>
+        <v>290.39</v>
       </c>
       <c r="J97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K97">
-        <v>632</v>
+        <v>579</v>
       </c>
       <c r="L97">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M97" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>259</v>
+        <v>205</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="C98">
-        <v>5.15</v>
+        <v>5.35</v>
       </c>
       <c r="D98">
+        <v>3</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>13</v>
+      </c>
+      <c r="G98">
+        <v>12</v>
+      </c>
+      <c r="H98">
         <v>4</v>
       </c>
-      <c r="E98">
-        <v>1</v>
-      </c>
-      <c r="F98">
-        <v>18</v>
-      </c>
-      <c r="G98">
-        <v>17</v>
-      </c>
-      <c r="H98">
-        <v>7</v>
-      </c>
       <c r="I98">
-        <v>406.15</v>
+        <v>222.23</v>
       </c>
       <c r="J98">
         <v>1</v>
       </c>
       <c r="K98">
-        <v>611</v>
+        <v>590</v>
       </c>
       <c r="L98">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="M98" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="C99">
-        <v>6.15</v>
+        <v>5.7</v>
       </c>
       <c r="D99">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F99">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G99">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I99">
-        <v>106.59</v>
+        <v>93.98</v>
       </c>
       <c r="J99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K99">
-        <v>594</v>
+        <v>618</v>
       </c>
       <c r="L99">
-        <v>636</v>
+        <v>578</v>
       </c>
       <c r="M99" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="B100">
-        <v>3.5</v>
+        <v>3.37</v>
       </c>
       <c r="C100">
-        <v>7.5</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D100">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F100">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G100">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>7.13</v>
+        <v>1296.22</v>
       </c>
       <c r="J100">
         <v>2</v>
       </c>
       <c r="K100">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="L100">
-        <v>506</v>
+        <v>626</v>
       </c>
       <c r="M100" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>314</v>
+        <v>238</v>
       </c>
       <c r="B101">
-        <v>0.69</v>
+        <v>1.39</v>
       </c>
       <c r="C101">
-        <v>8.4499999999999993</v>
+        <v>7.05</v>
       </c>
       <c r="D101">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G101">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H101">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I101">
-        <v>190.86</v>
+        <v>568.34</v>
       </c>
       <c r="J101">
         <v>1</v>
       </c>
       <c r="K101">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="L101">
-        <v>631</v>
+        <v>613</v>
       </c>
       <c r="M101" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>318</v>
+        <v>239</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="C102">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="D102">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G102">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>1419.41</v>
+        <v>220.72</v>
       </c>
       <c r="J102">
         <v>1</v>
       </c>
       <c r="K102">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="L102">
-        <v>625</v>
+        <v>590</v>
       </c>
       <c r="M102" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>330</v>
+        <v>243</v>
       </c>
       <c r="B103">
-        <v>1.95</v>
+        <v>2.56</v>
       </c>
       <c r="C103">
-        <v>7.75</v>
+        <v>7.8</v>
       </c>
       <c r="D103">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F103">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G103">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I103">
-        <v>176.28</v>
+        <v>0</v>
       </c>
       <c r="J103">
         <v>2</v>
       </c>
       <c r="K103">
-        <v>662</v>
+        <v>591</v>
       </c>
       <c r="L103">
-        <v>610</v>
+        <v>587</v>
       </c>
       <c r="M103" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>23</v>
+        <v>246</v>
       </c>
       <c r="B104">
-        <v>1.1000000000000001</v>
+        <v>2.94</v>
       </c>
       <c r="C104">
-        <v>6.15</v>
+        <v>7.35</v>
       </c>
       <c r="D104">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F104">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G104">
+        <v>10</v>
+      </c>
+      <c r="H104">
+        <v>4</v>
+      </c>
+      <c r="I104">
+        <v>77.59</v>
+      </c>
+      <c r="J104">
+        <v>3</v>
+      </c>
+      <c r="K104">
+        <v>613</v>
+      </c>
+      <c r="L104">
+        <v>604</v>
+      </c>
+      <c r="M104" t="s">
         <v>13</v>
       </c>
-      <c r="H104">
-        <v>5</v>
-      </c>
-      <c r="I104">
-        <v>112.32</v>
-      </c>
-      <c r="J104">
-        <v>2</v>
-      </c>
-      <c r="K104">
-        <v>593</v>
-      </c>
-      <c r="L104">
-        <v>624</v>
-      </c>
-      <c r="M104" t="s">
-        <v>14</v>
-      </c>
-      <c r="N104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>24</v>
+        <v>252</v>
       </c>
       <c r="B105">
-        <v>1.39</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C105">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="D105">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F105">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G105">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H105">
         <v>4</v>
       </c>
       <c r="I105">
-        <v>394.34</v>
+        <v>572.09</v>
       </c>
       <c r="J105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K105">
-        <v>609</v>
+        <v>653</v>
       </c>
       <c r="L105">
-        <v>610</v>
+        <v>569</v>
       </c>
       <c r="M105" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>256</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>6.2</v>
+      </c>
+      <c r="D106">
+        <v>4</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>15</v>
+      </c>
+      <c r="G106">
         <v>14</v>
       </c>
-      <c r="N105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>25</v>
-      </c>
-      <c r="B106">
-        <v>2.77</v>
-      </c>
-      <c r="C106">
-        <v>6.05</v>
-      </c>
-      <c r="D106">
-        <v>5</v>
-      </c>
-      <c r="E106">
-        <v>2</v>
-      </c>
-      <c r="F106">
-        <v>14</v>
-      </c>
-      <c r="G106">
-        <v>12</v>
-      </c>
       <c r="H106">
         <v>2</v>
       </c>
       <c r="I106">
-        <v>44.06</v>
+        <v>436.26</v>
       </c>
       <c r="J106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K106">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="L106">
         <v>611</v>
       </c>
       <c r="M106" t="s">
-        <v>14</v>
-      </c>
-      <c r="N106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>34</v>
+        <v>259</v>
       </c>
       <c r="B107">
-        <v>0.69</v>
+        <v>0</v>
       </c>
       <c r="C107">
-        <v>5.45</v>
+        <v>5.15</v>
       </c>
       <c r="D107">
         <v>4</v>
@@ -6392,289 +6577,271 @@
         <v>1</v>
       </c>
       <c r="F107">
+        <v>18</v>
+      </c>
+      <c r="G107">
+        <v>17</v>
+      </c>
+      <c r="H107">
+        <v>7</v>
+      </c>
+      <c r="I107">
+        <v>406.15</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>611</v>
+      </c>
+      <c r="L107">
+        <v>578</v>
+      </c>
+      <c r="M107" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>265</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>6.15</v>
+      </c>
+      <c r="D108">
+        <v>7</v>
+      </c>
+      <c r="E108">
+        <v>3</v>
+      </c>
+      <c r="F108">
+        <v>11</v>
+      </c>
+      <c r="G108">
+        <v>9</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>106.59</v>
+      </c>
+      <c r="J108">
+        <v>2</v>
+      </c>
+      <c r="K108">
+        <v>594</v>
+      </c>
+      <c r="L108">
+        <v>636</v>
+      </c>
+      <c r="M108" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>270</v>
+      </c>
+      <c r="B109">
+        <v>3.5</v>
+      </c>
+      <c r="C109">
+        <v>7.5</v>
+      </c>
+      <c r="D109">
+        <v>3</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>10</v>
+      </c>
+      <c r="G109">
+        <v>8</v>
+      </c>
+      <c r="H109">
+        <v>2</v>
+      </c>
+      <c r="I109">
+        <v>7.13</v>
+      </c>
+      <c r="J109">
+        <v>2</v>
+      </c>
+      <c r="K109">
+        <v>608</v>
+      </c>
+      <c r="L109">
+        <v>506</v>
+      </c>
+      <c r="M109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>314</v>
+      </c>
+      <c r="B110">
+        <v>0.69</v>
+      </c>
+      <c r="C110">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="D110">
+        <v>8</v>
+      </c>
+      <c r="E110">
+        <v>3</v>
+      </c>
+      <c r="F110">
+        <v>17</v>
+      </c>
+      <c r="G110">
         <v>16</v>
       </c>
-      <c r="G107">
-        <v>14</v>
-      </c>
-      <c r="H107">
-        <v>3</v>
-      </c>
-      <c r="I107">
-        <v>263.05</v>
-      </c>
-      <c r="J107">
-        <v>2</v>
-      </c>
-      <c r="K107">
-        <v>619</v>
-      </c>
-      <c r="L107">
-        <v>617</v>
-      </c>
-      <c r="M107" t="s">
-        <v>14</v>
-      </c>
-      <c r="N107">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>35</v>
-      </c>
-      <c r="B108">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C108">
-        <v>5.7</v>
-      </c>
-      <c r="D108">
-        <v>4</v>
-      </c>
-      <c r="E108">
-        <v>2</v>
-      </c>
-      <c r="F108">
-        <v>18</v>
-      </c>
-      <c r="G108">
-        <v>14</v>
-      </c>
-      <c r="H108">
-        <v>3</v>
-      </c>
-      <c r="I108">
-        <v>165.52</v>
-      </c>
-      <c r="J108">
-        <v>4</v>
-      </c>
-      <c r="K108">
-        <v>644</v>
-      </c>
-      <c r="L108">
-        <v>564</v>
-      </c>
-      <c r="M108" t="s">
-        <v>14</v>
-      </c>
-      <c r="N108">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>110</v>
-      </c>
-      <c r="B109">
-        <v>3.71</v>
-      </c>
-      <c r="C109">
-        <v>7.65</v>
-      </c>
-      <c r="D109">
-        <v>3</v>
-      </c>
-      <c r="E109">
-        <v>1</v>
-      </c>
-      <c r="F109">
-        <v>20</v>
-      </c>
-      <c r="G109">
+      <c r="H110">
+        <v>6</v>
+      </c>
+      <c r="I110">
+        <v>190.86</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>610</v>
+      </c>
+      <c r="L110">
+        <v>631</v>
+      </c>
+      <c r="M110" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>318</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>7.1</v>
+      </c>
+      <c r="D111">
+        <v>7</v>
+      </c>
+      <c r="E111">
+        <v>3</v>
+      </c>
+      <c r="F111">
+        <v>16</v>
+      </c>
+      <c r="G111">
         <v>15</v>
       </c>
-      <c r="H109">
-        <v>5</v>
-      </c>
-      <c r="I109">
-        <v>147.72999999999999</v>
-      </c>
-      <c r="J109">
-        <v>5</v>
-      </c>
-      <c r="K109">
-        <v>615</v>
-      </c>
-      <c r="L109">
-        <v>617</v>
-      </c>
-      <c r="M109" t="s">
-        <v>14</v>
-      </c>
-      <c r="N109">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>43</v>
-      </c>
-      <c r="B110">
-        <v>2.56</v>
-      </c>
-      <c r="C110">
-        <v>7.55</v>
-      </c>
-      <c r="D110">
-        <v>3</v>
-      </c>
-      <c r="E110">
-        <v>1</v>
-      </c>
-      <c r="F110">
-        <v>12</v>
-      </c>
-      <c r="G110">
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>1419.41</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>645</v>
+      </c>
+      <c r="L111">
+        <v>625</v>
+      </c>
+      <c r="M111" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>330</v>
+      </c>
+      <c r="B112">
+        <v>1.95</v>
+      </c>
+      <c r="C112">
+        <v>7.75</v>
+      </c>
+      <c r="D112">
+        <v>6</v>
+      </c>
+      <c r="E112">
+        <v>3</v>
+      </c>
+      <c r="F112">
+        <v>13</v>
+      </c>
+      <c r="G112">
         <v>11</v>
       </c>
-      <c r="H110">
-        <v>2</v>
-      </c>
-      <c r="I110">
-        <v>26.83</v>
-      </c>
-      <c r="J110">
-        <v>1</v>
-      </c>
-      <c r="K110">
-        <v>604</v>
-      </c>
-      <c r="L110">
-        <v>613</v>
-      </c>
-      <c r="M110" t="s">
-        <v>14</v>
-      </c>
-      <c r="N110">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>44</v>
-      </c>
-      <c r="B111">
-        <v>0.69</v>
-      </c>
-      <c r="C111">
-        <v>5.4</v>
-      </c>
-      <c r="D111">
-        <v>4</v>
-      </c>
-      <c r="E111">
-        <v>1</v>
-      </c>
-      <c r="F111">
-        <v>9</v>
-      </c>
-      <c r="G111">
-        <v>9</v>
-      </c>
-      <c r="H111">
-        <v>3</v>
-      </c>
-      <c r="I111">
-        <v>101.94</v>
-      </c>
-      <c r="J111">
-        <v>0</v>
-      </c>
-      <c r="K111">
-        <v>579</v>
-      </c>
-      <c r="L111">
-        <v>577</v>
-      </c>
-      <c r="M111" t="s">
-        <v>14</v>
-      </c>
-      <c r="N111">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>45</v>
-      </c>
-      <c r="B112">
-        <v>5.22</v>
-      </c>
-      <c r="C112">
-        <v>6.3</v>
-      </c>
-      <c r="D112">
-        <v>3</v>
-      </c>
-      <c r="E112">
-        <v>1</v>
-      </c>
-      <c r="F112">
-        <v>19</v>
-      </c>
-      <c r="G112">
-        <v>18</v>
-      </c>
       <c r="H112">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>264.16000000000003</v>
+        <v>176.28</v>
       </c>
       <c r="J112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K112">
-        <v>613</v>
+        <v>662</v>
       </c>
       <c r="L112">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="M112" t="s">
-        <v>14</v>
-      </c>
-      <c r="N112">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>272</v>
+        <v>44</v>
       </c>
       <c r="B113">
         <v>0.69</v>
       </c>
       <c r="C113">
-        <v>5.95</v>
+        <v>5.4</v>
       </c>
       <c r="D113">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F113">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G113">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H113">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I113">
-        <v>614.29999999999995</v>
+        <v>101.94</v>
       </c>
       <c r="J113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K113">
-        <v>637</v>
+        <v>579</v>
       </c>
       <c r="L113">
-        <v>615</v>
+        <v>577</v>
       </c>
       <c r="M113" t="s">
         <v>14</v>
@@ -6682,13 +6849,13 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B114">
-        <v>3.91</v>
+        <v>2.77</v>
       </c>
       <c r="C114">
-        <v>7.95</v>
+        <v>6.05</v>
       </c>
       <c r="D114">
         <v>5</v>
@@ -6697,25 +6864,25 @@
         <v>2</v>
       </c>
       <c r="F114">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G114">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H114">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>517.13</v>
+        <v>44.06</v>
       </c>
       <c r="J114">
         <v>2</v>
       </c>
       <c r="K114">
-        <v>614</v>
+        <v>635</v>
       </c>
       <c r="L114">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="M114" t="s">
         <v>14</v>
@@ -6723,40 +6890,40 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>3.71</v>
       </c>
       <c r="C115">
-        <v>6.1</v>
+        <v>7.65</v>
       </c>
       <c r="D115">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F115">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G115">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I115">
-        <v>31.91</v>
+        <v>147.72999999999999</v>
       </c>
       <c r="J115">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K115">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="L115">
-        <v>581</v>
+        <v>617</v>
       </c>
       <c r="M115" t="s">
         <v>14</v>
@@ -6764,40 +6931,40 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="B116">
-        <v>0.69</v>
+        <v>3.91</v>
       </c>
       <c r="C116">
-        <v>5.35</v>
+        <v>7.95</v>
       </c>
       <c r="D116">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F116">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G116">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H116">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I116">
-        <v>20.91</v>
+        <v>517.13</v>
       </c>
       <c r="J116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K116">
-        <v>586</v>
+        <v>614</v>
       </c>
       <c r="L116">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="M116" t="s">
         <v>14</v>
@@ -6805,13 +6972,13 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
       <c r="C117">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="D117">
         <v>7</v>
@@ -6823,22 +6990,22 @@
         <v>14</v>
       </c>
       <c r="G117">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I117">
-        <v>100.55</v>
+        <v>31.91</v>
       </c>
       <c r="J117">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K117">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="L117">
-        <v>609</v>
+        <v>581</v>
       </c>
       <c r="M117" t="s">
         <v>14</v>
@@ -6846,40 +7013,40 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="B118">
-        <v>3.81</v>
+        <v>0.69</v>
       </c>
       <c r="C118">
-        <v>5.4</v>
+        <v>5.35</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F118">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G118">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H118">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I118">
-        <v>212.46</v>
+        <v>20.91</v>
       </c>
       <c r="J118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K118">
-        <v>621</v>
+        <v>586</v>
       </c>
       <c r="L118">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="M118" t="s">
         <v>14</v>
@@ -6887,40 +7054,40 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="B119">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C119">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D119">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F119">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G119">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H119">
         <v>2</v>
       </c>
       <c r="I119">
-        <v>360.89</v>
+        <v>100.55</v>
       </c>
       <c r="J119">
         <v>2</v>
       </c>
       <c r="K119">
-        <v>590</v>
+        <v>611</v>
       </c>
       <c r="L119">
-        <v>578</v>
+        <v>609</v>
       </c>
       <c r="M119" t="s">
         <v>14</v>
@@ -6928,13 +7095,13 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B120">
-        <v>2.56</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C120">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="D120">
         <v>3</v>
@@ -6943,25 +7110,25 @@
         <v>1</v>
       </c>
       <c r="F120">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G120">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H120">
         <v>2</v>
       </c>
       <c r="I120">
-        <v>381.41</v>
+        <v>360.89</v>
       </c>
       <c r="J120">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K120">
-        <v>631</v>
+        <v>590</v>
       </c>
       <c r="L120">
-        <v>624</v>
+        <v>578</v>
       </c>
       <c r="M120" t="s">
         <v>14</v>
@@ -6969,13 +7136,13 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B121">
-        <v>4.9800000000000004</v>
+        <v>2.56</v>
       </c>
       <c r="C121">
-        <v>8.15</v>
+        <v>5.4</v>
       </c>
       <c r="D121">
         <v>3</v>
@@ -6984,25 +7151,25 @@
         <v>1</v>
       </c>
       <c r="F121">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G121">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H121">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I121">
-        <v>92.54</v>
+        <v>381.41</v>
       </c>
       <c r="J121">
         <v>4</v>
       </c>
       <c r="K121">
-        <v>610</v>
+        <v>631</v>
       </c>
       <c r="L121">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="M121" t="s">
         <v>14</v>
@@ -7010,13 +7177,13 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B122">
-        <v>2.56</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="C122">
-        <v>5.2</v>
+        <v>8.15</v>
       </c>
       <c r="D122">
         <v>3</v>
@@ -7025,25 +7192,25 @@
         <v>1</v>
       </c>
       <c r="F122">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G122">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H122">
+        <v>7</v>
+      </c>
+      <c r="I122">
+        <v>92.54</v>
+      </c>
+      <c r="J122">
         <v>4</v>
       </c>
-      <c r="I122">
-        <v>739.15</v>
-      </c>
-      <c r="J122">
-        <v>3</v>
-      </c>
       <c r="K122">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="L122">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="M122" t="s">
         <v>14</v>
@@ -7051,40 +7218,40 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="C123">
-        <v>5.85</v>
+        <v>5.2</v>
       </c>
       <c r="D123">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F123">
+        <v>20</v>
+      </c>
+      <c r="G123">
         <v>17</v>
       </c>
-      <c r="G123">
-        <v>14</v>
-      </c>
       <c r="H123">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I123">
-        <v>154.97999999999999</v>
+        <v>739.15</v>
       </c>
       <c r="J123">
         <v>3</v>
       </c>
       <c r="K123">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="L123">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="M123" t="s">
         <v>14</v>
@@ -7092,40 +7259,40 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="B124">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C124">
-        <v>5.65</v>
+        <v>5.85</v>
       </c>
       <c r="D124">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F124">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G124">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>84.35</v>
+        <v>154.97999999999999</v>
       </c>
       <c r="J124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K124">
-        <v>550</v>
+        <v>590</v>
       </c>
       <c r="L124">
-        <v>577</v>
+        <v>630</v>
       </c>
       <c r="M124" t="s">
         <v>14</v>
@@ -7133,13 +7300,13 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="B125">
-        <v>2.64</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C125">
-        <v>5.15</v>
+        <v>5.65</v>
       </c>
       <c r="D125">
         <v>3</v>
@@ -7148,25 +7315,25 @@
         <v>1</v>
       </c>
       <c r="F125">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G125">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H125">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>109.27</v>
+        <v>84.35</v>
       </c>
       <c r="J125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K125">
-        <v>614</v>
+        <v>550</v>
       </c>
       <c r="L125">
-        <v>635</v>
+        <v>577</v>
       </c>
       <c r="M125" t="s">
         <v>14</v>
@@ -7174,40 +7341,40 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="B126">
-        <v>0.69</v>
+        <v>2.64</v>
       </c>
       <c r="C126">
-        <v>5.8</v>
+        <v>5.15</v>
       </c>
       <c r="D126">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E126">
         <v>1</v>
       </c>
       <c r="F126">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G126">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I126">
-        <v>175.69</v>
+        <v>109.27</v>
       </c>
       <c r="J126">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K126">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="L126">
-        <v>618</v>
+        <v>635</v>
       </c>
       <c r="M126" t="s">
         <v>14</v>
@@ -7215,13 +7382,13 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>0.69</v>
       </c>
       <c r="C127">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="D127">
         <v>5</v>
@@ -7230,25 +7397,25 @@
         <v>1</v>
       </c>
       <c r="F127">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G127">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H127">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127">
-        <v>117.98</v>
+        <v>175.69</v>
       </c>
       <c r="J127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K127">
-        <v>648</v>
+        <v>629</v>
       </c>
       <c r="L127">
-        <v>652</v>
+        <v>618</v>
       </c>
       <c r="M127" t="s">
         <v>14</v>
@@ -7256,40 +7423,40 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B128">
-        <v>0.69</v>
+        <v>0</v>
       </c>
       <c r="C128">
-        <v>7.25</v>
+        <v>5.5</v>
       </c>
       <c r="D128">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F128">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G128">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H128">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>148.69</v>
+        <v>117.98</v>
       </c>
       <c r="J128">
         <v>1</v>
       </c>
       <c r="K128">
-        <v>607</v>
+        <v>648</v>
       </c>
       <c r="L128">
-        <v>597</v>
+        <v>652</v>
       </c>
       <c r="M128" t="s">
         <v>14</v>
@@ -15551,9 +15718,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="M1:M345"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N345">
-    <sortCondition ref="M2:M345"/>
+  <autoFilter ref="M1:M345" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N350">
+    <sortCondition ref="N2:N350"/>
+    <sortCondition descending="1" ref="M2:M350"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
